--- a/mySQL_Create/classification_definition.xlsx
+++ b/mySQL_Create/classification_definition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
   <si>
     <t>Column name</t>
   </si>
@@ -79,12 +79,6 @@
     <t>reserve3</t>
   </si>
   <si>
-    <t>reserve4</t>
-  </si>
-  <si>
-    <t>reserve5</t>
-  </si>
-  <si>
     <t>meaning_attribute1</t>
   </si>
   <si>
@@ -140,6 +134,15 @@
   </si>
   <si>
     <t>DEFAULT NULL</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>Bijective</t>
+  </si>
+  <si>
+    <t>Custom</t>
   </si>
 </sst>
 </file>
@@ -305,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -325,9 +328,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -631,20 +635,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,16 +672,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>8</v>
@@ -684,7 +689,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -693,22 +698,24 @@
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -716,7 +723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
@@ -729,344 +736,344 @@
       <c r="F5" s="9"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>41</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>

--- a/mySQL_Create/classification_definition.xlsx
+++ b/mySQL_Create/classification_definition.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
   <si>
     <t>Column name</t>
   </si>
@@ -43,9 +43,6 @@
     <t>PRIMARY KEY</t>
   </si>
   <si>
-    <t>classification_Name</t>
-  </si>
-  <si>
     <t>VARCHAR(255)</t>
   </si>
   <si>
@@ -139,10 +136,25 @@
     <t>UNIQUE</t>
   </si>
   <si>
-    <t>Bijective</t>
-  </si>
-  <si>
-    <t>Custom</t>
+    <t>TRUE if all classification items that are part of this classification together span the entire dimensions (e.g., complete list of world's countries and territories)</t>
+  </si>
+  <si>
+    <t>TRUE if all classification items that are part of this classification are mutually (pair-wise) exclusive (e.g., for a list of different chemical elements)</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>created_from_dataset</t>
+  </si>
+  <si>
+    <t>TRUE if classification has general use, e.g., chemical elements or ISO region codes</t>
+  </si>
+  <si>
+    <t>TRUE if classification items are not predefined but generated while uploading the dataset from the template or other raw data file.</t>
+  </si>
+  <si>
+    <t>classification_name</t>
   </si>
 </sst>
 </file>
@@ -308,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -329,6 +341,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -635,14 +648,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="25.44140625" customWidth="1"/>
     <col min="4" max="4" width="19.44140625" customWidth="1"/>
     <col min="5" max="5" width="19.109375" customWidth="1"/>
@@ -678,10 +691,10 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>8</v>
@@ -691,61 +704,63 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="D5" s="10"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="C6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -753,14 +768,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="C7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -768,14 +785,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="C8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -783,14 +802,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="C9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -798,27 +819,27 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="D10" s="10"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -826,14 +847,14 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -841,14 +862,14 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -856,14 +877,14 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -871,14 +892,14 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -886,14 +907,14 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -901,14 +922,14 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -916,14 +937,14 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -931,14 +952,14 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -946,14 +967,14 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -961,14 +982,14 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -976,14 +997,14 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -991,14 +1012,14 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -1006,14 +1027,14 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -1021,14 +1042,14 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -1036,14 +1057,14 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -1051,14 +1072,14 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -1066,14 +1087,14 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
